--- a/Budget du projet.xlsx
+++ b/Budget du projet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archive supérieur\cours robotique\cours\gestion projet\AgroChip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Desktop\Cours\M1\Semestre 7\Gestion projet\Agro_Chip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADF9239-A4CC-4C15-A689-93A4915F18CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086586CF-981F-4A5D-8EF9-041DFC907A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Couts individuels" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -565,7 +565,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -594,22 +594,97 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -627,98 +702,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -732,22 +729,77 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
@@ -793,9 +845,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -805,16 +854,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
@@ -853,599 +911,21 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1457,6 +937,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1466,6 +954,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1475,6 +971,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1484,6 +988,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1493,6 +1005,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1502,6 +1022,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1511,6 +1039,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1520,6 +1056,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1529,6 +1073,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1538,6 +1090,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1547,6 +1107,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.0\ [$€-40C]_-;\-* #,##0.0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1556,6 +1124,13 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1565,6 +1140,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1574,6 +1155,32 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1583,6 +1190,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1592,6 +1203,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1601,6 +1216,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1610,6 +1229,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1619,6 +1242,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1628,6 +1255,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1637,6 +1268,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1646,6 +1281,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1655,6 +1294,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1664,6 +1307,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1673,6 +1320,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1682,6 +1333,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1691,6 +1346,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1700,6 +1358,21 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1709,6 +1382,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1718,6 +1397,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1727,6 +1412,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1736,6 +1427,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1745,6 +1442,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1754,6 +1457,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1763,6 +1472,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1772,6 +1487,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1781,6 +1502,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1790,6 +1517,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1799,6 +1532,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1808,6 +1547,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1817,12 +1562,24 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1834,6 +1591,23 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1843,6 +1617,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1852,6 +1634,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1861,6 +1651,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1870,6 +1668,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1879,6 +1685,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1888,6 +1702,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1897,6 +1719,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1906,6 +1736,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1915,6 +1753,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1924,6 +1770,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1933,6 +1787,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1942,6 +1804,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1951,12 +1821,25 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-40C]_-;\-* #,##0\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1968,6 +1851,21 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1977,6 +1875,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1986,6 +1890,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1995,6 +1905,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -2004,6 +1920,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -2013,6 +1935,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -2022,6 +1950,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -2031,6 +1965,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -2040,6 +1980,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -2049,6 +1995,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -2058,6 +2010,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -2067,6 +2025,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -2076,6 +2040,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -2085,6 +2055,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2093,12 +2069,24 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2108,6 +2096,15 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3161,6 +3158,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-85A6-4BD5-9FB1-2ADA1963D2BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -3190,6 +3192,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-85A6-4BD5-9FB1-2ADA1963D2BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -3219,6 +3226,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-85A6-4BD5-9FB1-2ADA1963D2BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -3248,6 +3260,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-85A6-4BD5-9FB1-2ADA1963D2BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -3279,6 +3296,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-85A6-4BD5-9FB1-2ADA1963D2BC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3475,7 +3497,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
@@ -3518,6 +3540,402 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Budget!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agro-chip </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5A77-4ABD-9B82-113C806978AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.7651001410662854E-2"/>
+                  <c:y val="2.9717263540205211E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5A77-4ABD-9B82-113C806978AC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Budget!$A$3,Budget!$B$10:$B$13,Budget!$B$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v> Salaire </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Composants éléctroniques</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Logiciel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Composants éléctriques</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>location du local </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Budget!$Q$3,Budget!$P$10:$P$13,Budget!$P$15)</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0\ [$€-40C]_-;\-* #\ ##0\ [$€-40C]_-;_-* "-"??\ [$€-40C]_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>878396.80499999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A77-4ABD-9B82-113C806978AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3592,6 +4010,43 @@
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -4670,6 +5125,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4744,38 +5718,74 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123303</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>971826</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Graphique 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF54880-9739-7068-82F3-E41278FF38EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A2:P9" headerRowCount="0" totalsRowCount="1" headerRowDxfId="171" dataDxfId="169" totalsRowDxfId="170">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau13" displayName="Tableau13" ref="A2:P9" headerRowCount="0" totalsRowCount="1" headerRowDxfId="282" dataDxfId="281" totalsRowDxfId="280">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Colonne1" totalsRowLabel="Total" headerRowDxfId="282" dataDxfId="203" totalsRowDxfId="202"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Colonne2" headerRowDxfId="281" dataDxfId="201" totalsRowDxfId="200"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Colonne12" totalsRowFunction="sum" headerRowDxfId="280" dataDxfId="199" totalsRowDxfId="198"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2023" totalsRowFunction="sum" headerRowDxfId="279" dataDxfId="197" totalsRowDxfId="196"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2024" totalsRowFunction="sum" headerRowDxfId="278" dataDxfId="195" totalsRowDxfId="194"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Colonne3" totalsRowFunction="sum" headerRowDxfId="277" dataDxfId="193" totalsRowDxfId="192"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Colonne4" totalsRowFunction="sum" headerRowDxfId="276" dataDxfId="191" totalsRowDxfId="190"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Colonne5" totalsRowFunction="sum" headerRowDxfId="275" dataDxfId="189" totalsRowDxfId="188"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2025" totalsRowFunction="sum" headerRowDxfId="274" dataDxfId="187" totalsRowDxfId="186"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Colonne6" totalsRowFunction="sum" headerRowDxfId="273" dataDxfId="185" totalsRowDxfId="184"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Colonne7" totalsRowFunction="sum" headerRowDxfId="272" dataDxfId="183" totalsRowDxfId="182"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Colonne8" totalsRowFunction="sum" headerRowDxfId="271" dataDxfId="181" totalsRowDxfId="180"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2026" totalsRowFunction="sum" headerRowDxfId="270" dataDxfId="179" totalsRowDxfId="178"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Colonne9" totalsRowFunction="sum" headerRowDxfId="269" dataDxfId="177" totalsRowDxfId="176"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Colonne10" totalsRowFunction="sum" headerRowDxfId="268" dataDxfId="175" totalsRowDxfId="174"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colonne11" totalsRowFunction="sum" headerRowDxfId="267" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Colonne1" totalsRowLabel="Total" headerRowDxfId="279" dataDxfId="278" totalsRowDxfId="277"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Colonne2" headerRowDxfId="276" dataDxfId="275" totalsRowDxfId="274"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Colonne12" totalsRowFunction="sum" headerRowDxfId="273" dataDxfId="272" totalsRowDxfId="271"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2023" totalsRowFunction="sum" headerRowDxfId="270" dataDxfId="269" totalsRowDxfId="268"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2024" totalsRowFunction="sum" headerRowDxfId="267" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Colonne3" totalsRowFunction="sum" headerRowDxfId="264" dataDxfId="263" totalsRowDxfId="262"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Colonne4" totalsRowFunction="sum" headerRowDxfId="261" dataDxfId="260" totalsRowDxfId="259"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Colonne5" totalsRowFunction="sum" headerRowDxfId="258" dataDxfId="257" totalsRowDxfId="256"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2025" totalsRowFunction="sum" headerRowDxfId="255" dataDxfId="254" totalsRowDxfId="253"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Colonne6" totalsRowFunction="sum" headerRowDxfId="252" dataDxfId="251" totalsRowDxfId="250"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Colonne7" totalsRowFunction="sum" headerRowDxfId="249" dataDxfId="248" totalsRowDxfId="247"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Colonne8" totalsRowFunction="sum" headerRowDxfId="246" dataDxfId="245" totalsRowDxfId="244"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2026" totalsRowFunction="sum" headerRowDxfId="243" dataDxfId="242" totalsRowDxfId="241"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Colonne9" totalsRowFunction="sum" headerRowDxfId="240" dataDxfId="239" totalsRowDxfId="238"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Colonne10" totalsRowFunction="sum" headerRowDxfId="237" dataDxfId="236" totalsRowDxfId="235"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colonne11" totalsRowFunction="sum" headerRowDxfId="234" dataDxfId="233" totalsRowDxfId="232"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7D1A8D91-1620-40C4-8846-87A19ADD43D4}" name="Tableau8" displayName="Tableau8" ref="X12:Y16" headerRowCount="0" totalsRowCount="1" headerRowDxfId="6" dataDxfId="4" totalsRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7D1A8D91-1620-40C4-8846-87A19ADD43D4}" name="Tableau8" displayName="Tableau8" ref="X12:Y16" headerRowCount="0" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A4783F7F-95D2-4F43-BCCE-0DF077A20F85}" name="Colonne1" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{6CD03DB2-F843-4335-A20B-4C62CEB7A0FA}" name="Colonne2" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="1" xr3:uid="{A4783F7F-95D2-4F43-BCCE-0DF077A20F85}" name="Colonne1" totalsRowLabel="Total" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{6CD03DB2-F843-4335-A20B-4C62CEB7A0FA}" name="Colonne2" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>10500/3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4784,80 +5794,81 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AECB41FB-DB3B-4E5A-9405-4E19B0C5F151}" name="Tableau7" displayName="Tableau7" ref="S24:T26" headerRowCount="0" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AECB41FB-DB3B-4E5A-9405-4E19B0C5F151}" name="Tableau7" displayName="Tableau7" ref="S24:T26" headerRowCount="0" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{6152E44A-27C2-4422-BC34-27BD81CC1E2B}" name="Colonne2" headerRowDxfId="205" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{26CA9A25-2AFE-415E-B5FA-4B460D003269}" name="Colonne3" headerRowDxfId="206" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{6152E44A-27C2-4422-BC34-27BD81CC1E2B}" name="Colonne2" headerRowDxfId="18" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{26CA9A25-2AFE-415E-B5FA-4B460D003269}" name="Colonne3" headerRowDxfId="16" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau134" displayName="Tableau134" ref="A3:O15" headerRowCount="0" totalsRowCount="1" headerRowDxfId="138" dataDxfId="136" totalsRowDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau134" displayName="Tableau134" ref="A3:O15" headerRowCount="0" totalsRowCount="1" headerRowDxfId="231" dataDxfId="230" totalsRowDxfId="229">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colonne1" totalsRowLabel="Total" headerRowDxfId="266" dataDxfId="168" totalsRowDxfId="167"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Colonne12" totalsRowFunction="sum" headerRowDxfId="265" dataDxfId="166" totalsRowDxfId="165"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="2023" totalsRowFunction="sum" headerRowDxfId="264" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="2024" totalsRowFunction="sum" headerRowDxfId="263" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Colonne3" totalsRowFunction="sum" headerRowDxfId="262" dataDxfId="160" totalsRowDxfId="159"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Colonne4" totalsRowFunction="sum" headerRowDxfId="261" dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Colonne5" totalsRowFunction="sum" headerRowDxfId="260" dataDxfId="156" totalsRowDxfId="155"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="2025" totalsRowFunction="sum" headerRowDxfId="259" dataDxfId="154" totalsRowDxfId="153"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Colonne6" totalsRowFunction="sum" headerRowDxfId="258" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Colonne7" totalsRowFunction="sum" headerRowDxfId="257" dataDxfId="150" totalsRowDxfId="149"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Colonne8" totalsRowFunction="sum" headerRowDxfId="256" dataDxfId="148" totalsRowDxfId="147"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="2026" totalsRowFunction="sum" headerRowDxfId="255" dataDxfId="146" totalsRowDxfId="145"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Colonne9" totalsRowFunction="sum" headerRowDxfId="254" dataDxfId="144" totalsRowDxfId="143"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Colonne10" totalsRowFunction="sum" headerRowDxfId="253" dataDxfId="142" totalsRowDxfId="141"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Colonne11" totalsRowFunction="sum" headerRowDxfId="252" dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colonne1" totalsRowLabel="Total" headerRowDxfId="228" dataDxfId="227" totalsRowDxfId="226"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Colonne12" totalsRowFunction="sum" headerRowDxfId="225" dataDxfId="224" totalsRowDxfId="223"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="2023" totalsRowFunction="sum" headerRowDxfId="222" dataDxfId="221" totalsRowDxfId="220"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="2024" totalsRowFunction="sum" headerRowDxfId="219" dataDxfId="218" totalsRowDxfId="217"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Colonne3" totalsRowFunction="sum" headerRowDxfId="216" dataDxfId="215" totalsRowDxfId="214"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Colonne4" totalsRowFunction="sum" headerRowDxfId="213" dataDxfId="212" totalsRowDxfId="211"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Colonne5" totalsRowFunction="sum" headerRowDxfId="210" dataDxfId="209" totalsRowDxfId="208"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="2025" totalsRowFunction="sum" headerRowDxfId="207" dataDxfId="206" totalsRowDxfId="205"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Colonne6" totalsRowFunction="sum" headerRowDxfId="204" dataDxfId="203" totalsRowDxfId="202"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Colonne7" totalsRowFunction="sum" headerRowDxfId="201" dataDxfId="200" totalsRowDxfId="199"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Colonne8" totalsRowFunction="sum" headerRowDxfId="198" dataDxfId="197" totalsRowDxfId="196"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="2026" totalsRowFunction="sum" headerRowDxfId="195" dataDxfId="194" totalsRowDxfId="193"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Colonne9" totalsRowFunction="sum" headerRowDxfId="192" dataDxfId="191" totalsRowDxfId="190"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Colonne10" totalsRowFunction="sum" headerRowDxfId="189" dataDxfId="188" totalsRowDxfId="187"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Colonne11" totalsRowFunction="sum" headerRowDxfId="186" dataDxfId="185" totalsRowDxfId="184"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau1345" displayName="Tableau1345" ref="A21:O28" headerRowCount="0" totalsRowCount="1" headerRowDxfId="105" dataDxfId="103" totalsRowDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau1345" displayName="Tableau1345" ref="A21:O28" headerRowCount="0" totalsRowCount="1" headerRowDxfId="183" dataDxfId="182" totalsRowDxfId="181">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Colonne1" totalsRowLabel="Total" headerRowDxfId="251" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Colonne12" totalsRowFunction="sum" headerRowDxfId="250" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="2023" totalsRowFunction="sum" headerRowDxfId="249" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="2024" totalsRowFunction="sum" headerRowDxfId="248" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Colonne3" totalsRowFunction="sum" headerRowDxfId="247" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Colonne4" totalsRowFunction="sum" headerRowDxfId="246" dataDxfId="125" totalsRowDxfId="124"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Colonne5" totalsRowFunction="sum" headerRowDxfId="245" dataDxfId="123" totalsRowDxfId="122"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="2025" totalsRowFunction="sum" headerRowDxfId="244" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Colonne6" totalsRowFunction="sum" headerRowDxfId="243" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Colonne7" totalsRowFunction="sum" headerRowDxfId="242" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Colonne8" totalsRowFunction="sum" headerRowDxfId="241" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="2026" totalsRowFunction="sum" headerRowDxfId="240" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Colonne9" totalsRowFunction="sum" headerRowDxfId="239" dataDxfId="111" totalsRowDxfId="110"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Colonne10" totalsRowFunction="sum" headerRowDxfId="238" dataDxfId="109" totalsRowDxfId="108"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Colonne11" totalsRowFunction="sum" headerRowDxfId="237" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Colonne1" totalsRowLabel="Total" headerRowDxfId="180" dataDxfId="179" totalsRowDxfId="178"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Colonne12" totalsRowFunction="sum" headerRowDxfId="177" dataDxfId="176" totalsRowDxfId="175"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="2023" totalsRowFunction="sum" headerRowDxfId="174" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="2024" totalsRowFunction="sum" headerRowDxfId="171" dataDxfId="170" totalsRowDxfId="169"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Colonne3" totalsRowFunction="sum" headerRowDxfId="168" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Colonne4" totalsRowFunction="sum" headerRowDxfId="165" dataDxfId="164" totalsRowDxfId="163"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Colonne5" totalsRowFunction="sum" headerRowDxfId="162" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="2025" totalsRowFunction="sum" headerRowDxfId="159" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Colonne6" totalsRowFunction="sum" headerRowDxfId="156" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Colonne7" totalsRowFunction="sum" headerRowDxfId="153" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Colonne8" totalsRowFunction="sum" headerRowDxfId="150" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="2026" totalsRowFunction="sum" headerRowDxfId="147" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Colonne9" totalsRowFunction="sum" headerRowDxfId="144" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Colonne10" totalsRowFunction="sum" headerRowDxfId="141" dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Colonne11" totalsRowFunction="sum" headerRowDxfId="138" dataDxfId="137" totalsRowDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B3:P16" headerRowCount="0" totalsRowCount="1" headerRowDxfId="72" dataDxfId="70" totalsRowDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B3:P16" headerRowCount="0" totalsRowCount="1" headerRowDxfId="135" dataDxfId="134" totalsRowDxfId="133">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Colonne1" totalsRowLabel="Total" headerRowDxfId="236" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="2023" totalsRowFunction="sum" headerRowDxfId="235" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="2024" totalsRowFunction="sum" headerRowDxfId="234" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Colonne3" totalsRowFunction="sum" headerRowDxfId="233" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Colonne4" totalsRowFunction="sum" headerRowDxfId="232" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Colonne5" totalsRowFunction="sum" headerRowDxfId="231" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="2025" totalsRowFunction="sum" headerRowDxfId="230" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Colonne6" totalsRowFunction="sum" headerRowDxfId="229" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Colonne7" totalsRowFunction="sum" headerRowDxfId="228" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Colonne8" totalsRowFunction="sum" headerRowDxfId="227" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="2026" totalsRowFunction="sum" headerRowDxfId="226" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Colonne9" totalsRowFunction="sum" headerRowDxfId="225" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Colonne10" totalsRowFunction="sum" headerRowDxfId="224" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="Colonne11" totalsRowFunction="sum" headerRowDxfId="223" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{5166DD1D-361F-4E2D-AF4C-00C57339E308}" name="Colonne2" headerRowDxfId="204" dataDxfId="74" totalsRowDxfId="73">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Colonne1" totalsRowLabel="Total" headerRowDxfId="132" dataDxfId="131" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="2023" totalsRowFunction="sum" headerRowDxfId="130" dataDxfId="129" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="2024" totalsRowFunction="sum" headerRowDxfId="128" dataDxfId="127" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Colonne3" totalsRowFunction="sum" headerRowDxfId="126" dataDxfId="125" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Colonne4" totalsRowFunction="sum" headerRowDxfId="124" dataDxfId="123" totalsRowDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Colonne5" totalsRowFunction="sum" headerRowDxfId="122" dataDxfId="121" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="2025" totalsRowFunction="sum" headerRowDxfId="120" dataDxfId="119" totalsRowDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Colonne6" totalsRowFunction="sum" headerRowDxfId="118" dataDxfId="117" totalsRowDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Colonne7" totalsRowFunction="sum" headerRowDxfId="116" dataDxfId="115" totalsRowDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Colonne8" totalsRowFunction="sum" headerRowDxfId="114" dataDxfId="113" totalsRowDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="2026" totalsRowFunction="sum" headerRowDxfId="112" dataDxfId="111" totalsRowDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Colonne9" totalsRowFunction="sum" headerRowDxfId="110" dataDxfId="109" totalsRowDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Colonne10" totalsRowFunction="sum" headerRowDxfId="108" dataDxfId="107" totalsRowDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="Colonne11" totalsRowFunction="sum" headerRowDxfId="106" dataDxfId="105" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5166DD1D-361F-4E2D-AF4C-00C57339E308}" name="Colonne2" totalsRowFunction="custom" headerRowDxfId="104" dataDxfId="103" totalsRowDxfId="0">
       <calculatedColumnFormula>SUM(Tableau1[[#This Row],[2023]:[Colonne11]])</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tableau1[[#Totals],[2023]:[Colonne11]])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -4865,46 +5876,46 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau16" displayName="Tableau16" ref="B21:O28" headerRowCount="0" totalsRowCount="1" headerRowDxfId="41" dataDxfId="39" totalsRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau16" displayName="Tableau16" ref="B21:O28" headerRowCount="0" totalsRowCount="1" headerRowDxfId="102" dataDxfId="101" totalsRowDxfId="100">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Colonne1" totalsRowLabel="Total" headerRowDxfId="222" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="2023" totalsRowFunction="custom" headerRowDxfId="221" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Colonne1" totalsRowLabel="Total" headerRowDxfId="99" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="2023" totalsRowFunction="custom" headerRowDxfId="96" dataDxfId="95" totalsRowDxfId="94">
       <totalsRowFormula>C22+$T$24*C23+$T$25*C24+$T$26*C25-C26-C27</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="2024" totalsRowFunction="custom" headerRowDxfId="220" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="2024" totalsRowFunction="custom" headerRowDxfId="93" dataDxfId="92" totalsRowDxfId="91">
       <totalsRowFormula>D22+$T$24*D23+$T$25*D24+$T$26*D25-D26-D27</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Colonne3" totalsRowFunction="custom" headerRowDxfId="219" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Colonne3" totalsRowFunction="custom" headerRowDxfId="90" dataDxfId="89" totalsRowDxfId="88">
       <totalsRowFormula>E22+$T$24*E23+$T$25*E24+$T$26*E25-E26-E27</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Colonne4" totalsRowFunction="custom" headerRowDxfId="218" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Colonne4" totalsRowFunction="custom" headerRowDxfId="87" dataDxfId="86" totalsRowDxfId="85">
       <totalsRowFormula>F22+$T$24*F23+$T$25*F24+$T$26*F25-F26-F27</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Colonne5" totalsRowFunction="custom" headerRowDxfId="217" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Colonne5" totalsRowFunction="custom" headerRowDxfId="84" dataDxfId="83" totalsRowDxfId="82">
       <totalsRowFormula>G22+$T$24*G23+$T$25*G24+$T$26*G25-G26-G27</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="2025" totalsRowFunction="custom" headerRowDxfId="216" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="2025" totalsRowFunction="custom" headerRowDxfId="81" dataDxfId="80" totalsRowDxfId="79">
       <totalsRowFormula>H22+$T$24*H23+$T$25*H24+$T$26*H25-H26-H27</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Colonne6" totalsRowFunction="custom" headerRowDxfId="215" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Colonne6" totalsRowFunction="custom" headerRowDxfId="78" dataDxfId="77" totalsRowDxfId="76">
       <totalsRowFormula>I22+$T$24*I23+$T$25*I24+$T$26*I25-I26-I27</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Colonne7" totalsRowFunction="custom" headerRowDxfId="214" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Colonne7" totalsRowFunction="custom" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
       <totalsRowFormula>J22+$T$24*J23+$T$25*J24+$T$26*J25-J26-J27</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Colonne8" totalsRowFunction="custom" headerRowDxfId="213" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Colonne8" totalsRowFunction="custom" headerRowDxfId="72" dataDxfId="71" totalsRowDxfId="70">
       <totalsRowFormula>K22+$T$24*K23+$T$25*K24+$T$26*K25-K26-K27</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="2026" totalsRowFunction="custom" headerRowDxfId="212" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="2026" totalsRowFunction="custom" headerRowDxfId="69" dataDxfId="68" totalsRowDxfId="67">
       <totalsRowFormula>L22+$T$24*L23+$T$25*L24+$T$26*L25-L26-L27</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="Colonne9" totalsRowFunction="custom" headerRowDxfId="211" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="Colonne9" totalsRowFunction="custom" headerRowDxfId="66" dataDxfId="65" totalsRowDxfId="64">
       <totalsRowFormula>M22+$T$24*M23+$T$25*M24+$T$26*M25-M26-M27</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="Colonne10" totalsRowFunction="custom" headerRowDxfId="210" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="Colonne10" totalsRowFunction="custom" headerRowDxfId="63" dataDxfId="62" totalsRowDxfId="61">
       <totalsRowFormula>N22+$T$24*N23+$T$25*N24+$T$26*N25-N26-N27</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Colonne11" totalsRowFunction="custom" headerRowDxfId="209" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Colonne11" totalsRowFunction="custom" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
       <totalsRowFormula>O22+$T$24*O23+$T$25*O24+$T$26*O25-O26-O27</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -4913,40 +5924,40 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{BCCD724B-53D0-46B3-9FB7-30182C93FC3B}" name="Tableau12" displayName="Tableau12" ref="S12:T16" headerRowCount="0" totalsRowCount="1" headerRowDxfId="34" dataDxfId="32" totalsRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{BCCD724B-53D0-46B3-9FB7-30182C93FC3B}" name="Tableau12" displayName="Tableau12" ref="S12:T16" headerRowCount="0" totalsRowCount="1" headerRowDxfId="57" dataDxfId="56" totalsRowDxfId="55">
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{1A74F903-90B8-4D8F-BD29-50570BC59B0D}" name="Colonne2" totalsRowLabel="Total" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{43ED4C9F-65FD-47D9-B464-022DA34263F1}" name="Colonne3" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{1A74F903-90B8-4D8F-BD29-50570BC59B0D}" name="Colonne2" totalsRowLabel="Total" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{43ED4C9F-65FD-47D9-B464-022DA34263F1}" name="Colonne3" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{EB4D3728-0B1D-45F4-82B1-1568C825ECC8}" name="Tableau14" displayName="Tableau14" ref="X5:Y9" headerRowCount="0" totalsRowCount="1" headerRowDxfId="27" dataDxfId="25" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{EB4D3728-0B1D-45F4-82B1-1568C825ECC8}" name="Tableau14" displayName="Tableau14" ref="X5:Y9" headerRowCount="0" totalsRowCount="1" headerRowDxfId="50" dataDxfId="49" totalsRowDxfId="48">
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{5FD43BE1-2C92-4493-B6DB-0D57BFA3A8F5}" name="Colonne2" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{3A56108D-9B80-4AB4-A722-855DF15A6A00}" name="Colonne3" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{5FD43BE1-2C92-4493-B6DB-0D57BFA3A8F5}" name="Colonne2" totalsRowLabel="Total" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{3A56108D-9B80-4AB4-A722-855DF15A6A00}" name="Colonne3" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D8C4253A-2FDE-42FA-99DF-D3270C8C05A6}" name="Tableau15" displayName="Tableau15" ref="S5:T9" headerRowCount="0" totalsRowCount="1" headerRowDxfId="20" dataDxfId="18" totalsRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D8C4253A-2FDE-42FA-99DF-D3270C8C05A6}" name="Tableau15" displayName="Tableau15" ref="S5:T9" headerRowCount="0" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DCB2D1AF-D73B-4E0E-ABEA-6B4F61615BD8}" name="Colonne1" totalsRowLabel="Total" headerRowDxfId="208" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{FF9F723D-E8AB-40C4-8F07-298257D6C5F3}" name="Colonne2" totalsRowFunction="sum" headerRowDxfId="207" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{DCB2D1AF-D73B-4E0E-ABEA-6B4F61615BD8}" name="Colonne1" totalsRowLabel="Total" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{FF9F723D-E8AB-40C4-8F07-298257D6C5F3}" name="Colonne2" totalsRowFunction="sum" headerRowDxfId="37" dataDxfId="36" totalsRowDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8A5DE25B-DCD5-4291-94F2-206A5938ACC1}" name="Tableau6" displayName="Tableau6" ref="X20:Y22" headerRowCount="0" totalsRowCount="1" headerRowDxfId="13" dataDxfId="11" totalsRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8A5DE25B-DCD5-4291-94F2-206A5938ACC1}" name="Tableau6" displayName="Tableau6" ref="X20:Y22" headerRowCount="0" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33" totalsRowDxfId="32">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0D3D4FD9-15EC-4296-A2C6-403AEC0F260A}" name="Colonne1" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{93B01632-CAEE-4DDF-84E5-2464DD417B1B}" name="Colonne2" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{0D3D4FD9-15EC-4296-A2C6-403AEC0F260A}" name="Colonne1" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{93B01632-CAEE-4DDF-84E5-2464DD417B1B}" name="Colonne2" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5235,28 +6246,28 @@
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="3">
         <v>2023</v>
       </c>
-      <c r="D1" s="37">
+      <c r="D1" s="22">
         <v>2024</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="14">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25">
         <v>2025</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="11">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26">
         <v>2026</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -5788,24 +6799,24 @@
       <c r="B2" s="3">
         <v>2023</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="22">
         <v>2024</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="14">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25">
         <v>2025</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="11">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26">
         <v>2026</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
       <c r="O2" s="9">
         <v>2027</v>
       </c>
@@ -6510,24 +7521,24 @@
       <c r="B20" s="3">
         <v>2023</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="22">
         <v>2024</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="13">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="27">
         <v>2025</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="11">
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26">
         <v>2026</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
       <c r="O20" s="9">
         <v>2027</v>
       </c>
@@ -6943,8 +7954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="80" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6964,32 +7975,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="3">
         <v>2023</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="47">
         <v>2024</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="27">
         <v>2025</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="10">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="47">
         <v>2026</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="50" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="28" t="s">
         <v>80</v>
       </c>
       <c r="Q1" s="1"/>
@@ -7005,8 +8016,8 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
@@ -7046,7 +8057,7 @@
       <c r="O2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="51"/>
+      <c r="P2" s="29"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -7060,7 +8071,7 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="36" t="s">
         <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7122,7 +8133,10 @@
         <f>SUM(Tableau1[[#This Row],[2023]:[Colonne11]])</f>
         <v>97599.644999999975</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="50">
+        <f>SUM(P3:P9)</f>
+        <v>878396.80499999993</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -7135,7 +8149,7 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -7195,7 +8209,7 @@
         <f>SUM(Tableau1[[#This Row],[2023]:[Colonne11]])</f>
         <v>97599.644999999975</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="50"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -7208,7 +8222,7 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -7268,19 +8282,19 @@
         <f>SUM(Tableau1[[#This Row],[2023]:[Colonne11]])</f>
         <v>97599.644999999975</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="27" t="s">
+      <c r="Q5" s="50"/>
+      <c r="R5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="43" t="s">
+      <c r="S5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="T5" s="43" t="s">
+      <c r="T5" s="16" t="s">
         <v>70</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="24" t="s">
+      <c r="W5" s="30" t="s">
         <v>46</v>
       </c>
       <c r="X5" s="1" t="s">
@@ -7293,7 +8307,7 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -7353,8 +8367,8 @@
         <f>SUM(Tableau1[[#This Row],[2023]:[Colonne11]])</f>
         <v>97599.644999999975</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="28"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="34"/>
       <c r="S6" s="1" t="s">
         <v>63</v>
       </c>
@@ -7364,7 +8378,7 @@
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="25"/>
+      <c r="W6" s="31"/>
       <c r="X6" s="1" t="s">
         <v>54</v>
       </c>
@@ -7375,7 +8389,7 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -7435,8 +8449,8 @@
         <f>SUM(Tableau1[[#This Row],[2023]:[Colonne11]])</f>
         <v>97599.644999999975</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="28"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="34"/>
       <c r="S7" s="1" t="s">
         <v>68</v>
       </c>
@@ -7446,7 +8460,7 @@
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="25"/>
+      <c r="W7" s="31"/>
       <c r="X7" s="1" t="s">
         <v>48</v>
       </c>
@@ -7457,7 +8471,7 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -7517,8 +8531,8 @@
         <f>SUM(Tableau1[[#This Row],[2023]:[Colonne11]])</f>
         <v>97599.644999999975</v>
       </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="12"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="35"/>
       <c r="S8" s="1" t="s">
         <v>69</v>
       </c>
@@ -7527,7 +8541,7 @@
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="25"/>
+      <c r="W8" s="31"/>
       <c r="X8" s="1" t="s">
         <v>49</v>
       </c>
@@ -7538,7 +8552,7 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -7598,7 +8612,7 @@
         <f>SUM(Tableau1[[#This Row],[2023]:[Colonne11]])</f>
         <v>292798.935</v>
       </c>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="50"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
         <v>21</v>
@@ -7609,7 +8623,7 @@
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="26"/>
+      <c r="W9" s="32"/>
       <c r="X9" s="1" t="s">
         <v>21</v>
       </c>
@@ -7621,7 +8635,7 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7679,7 +8693,10 @@
         <f>SUM(Tableau1[[#This Row],[2023]:[Colonne11]])</f>
         <v>40700</v>
       </c>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="50">
+        <f>SUM(P10:P13)</f>
+        <v>754300</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -7692,7 +8709,7 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -7752,7 +8769,7 @@
         <f>SUM(Tableau1[[#This Row],[2023]:[Colonne11]])</f>
         <v>340000</v>
       </c>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="41"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -7765,7 +8782,7 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -7825,19 +8842,19 @@
         <f>SUM(Tableau1[[#This Row],[2023]:[Colonne11]])</f>
         <v>280000</v>
       </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="24" t="s">
+      <c r="Q12" s="41"/>
+      <c r="R12" s="30" t="s">
         <v>67</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T12" s="41">
+      <c r="T12" s="14">
         <v>12000</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="24" t="s">
+      <c r="W12" s="30" t="s">
         <v>50</v>
       </c>
       <c r="X12" s="1" t="s">
@@ -7851,7 +8868,7 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -7911,18 +8928,18 @@
         <f>SUM(Tableau1[[#This Row],[2023]:[Colonne11]])</f>
         <v>93600</v>
       </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="25"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="31"/>
       <c r="S13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="41">
+      <c r="T13" s="14">
         <v>200</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="33" t="s">
+      <c r="W13" s="31"/>
+      <c r="X13" s="11" t="s">
         <v>56</v>
       </c>
       <c r="Y13" s="7">
@@ -7932,7 +8949,7 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="38" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -7980,17 +8997,17 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="33" t="s">
+      <c r="R14" s="31"/>
+      <c r="S14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="T14" s="41">
+      <c r="T14" s="14">
         <v>2000</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="33" t="s">
+      <c r="W14" s="31"/>
+      <c r="X14" s="11" t="s">
         <v>57</v>
       </c>
       <c r="Y14" s="7">
@@ -8000,7 +9017,7 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
@@ -8060,8 +9077,11 @@
         <f>SUM(Tableau1[[#This Row],[2023]:[Colonne11]])</f>
         <v>91000</v>
       </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="25"/>
+      <c r="Q15" s="7">
+        <f>SUM(Tableau1[[#This Row],[2023]:[Colonne11]])</f>
+        <v>91000</v>
+      </c>
+      <c r="R15" s="31"/>
       <c r="S15" s="1" t="s">
         <v>66</v>
       </c>
@@ -8070,7 +9090,7 @@
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="25"/>
+      <c r="W15" s="31"/>
       <c r="X15" s="1" t="s">
         <v>58</v>
       </c>
@@ -8081,65 +9101,68 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="10">
         <f>SUBTOTAL(109,Tableau1[2023])</f>
         <v>136968.98499999999</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="10">
         <f>SUBTOTAL(109,Tableau1[2024])</f>
         <v>142768.98499999999</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="10">
         <f>SUBTOTAL(109,Tableau1[Colonne3])</f>
         <v>142768.98499999999</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="10">
         <f>SUBTOTAL(109,Tableau1[Colonne4])</f>
         <v>142768.98499999999</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="10">
         <f>SUBTOTAL(109,Tableau1[Colonne5])</f>
         <v>102768.985</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="10">
         <f>SUBTOTAL(109,Tableau1[2025])</f>
         <v>127768.985</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="10">
         <f>SUBTOTAL(109,Tableau1[Colonne6])</f>
         <v>123268.985</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="10">
         <f>SUBTOTAL(109,Tableau1[Colonne7])</f>
         <v>123268.985</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="10">
         <f>SUBTOTAL(109,Tableau1[Colonne8])</f>
         <v>103268.985</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="10">
         <f>SUBTOTAL(109,Tableau1[2026])</f>
         <v>128268.985</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="10">
         <f>SUBTOTAL(109,Tableau1[Colonne9])</f>
         <v>123268.985</v>
       </c>
-      <c r="N16" s="32">
+      <c r="N16" s="10">
         <f>SUBTOTAL(109,Tableau1[Colonne10])</f>
         <v>123268.985</v>
       </c>
-      <c r="O16" s="32">
+      <c r="O16" s="10">
         <f>SUBTOTAL(109,Tableau1[Colonne11])</f>
         <v>103268.985</v>
       </c>
-      <c r="P16" s="1"/>
+      <c r="P16" s="1">
+        <f>SUM(Tableau1[[#Totals],[2023]:[Colonne11]])</f>
+        <v>1623696.8050000004</v>
+      </c>
       <c r="Q16" s="1"/>
-      <c r="R16" s="26"/>
+      <c r="R16" s="32"/>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
@@ -8149,7 +9172,7 @@
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="26"/>
+      <c r="W16" s="32"/>
       <c r="X16" s="1" t="s">
         <v>21</v>
       </c>
@@ -8253,37 +9276,37 @@
       <c r="C20" s="3">
         <v>2023</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="47">
         <v>2024</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="27">
         <v>2025</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="10">
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="47">
         <v>2026</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="12"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="35"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="44" t="s">
+      <c r="S20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="T20" s="45">
+      <c r="T20" s="17">
         <f>C3</f>
         <v>7507.6649999999991</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="24" t="s">
+      <c r="W20" s="30" t="s">
         <v>51</v>
       </c>
       <c r="X20" s="1" t="s">
@@ -8340,16 +9363,16 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="46" t="s">
+      <c r="S21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="T21" s="47">
+      <c r="T21" s="19">
         <f>T20*6</f>
         <v>45045.989999999991</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="25"/>
+      <c r="W21" s="31"/>
       <c r="X21" s="1" t="s">
         <v>53</v>
       </c>
@@ -8360,7 +9383,7 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -8425,7 +9448,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="26"/>
+      <c r="W22" s="32"/>
       <c r="X22" s="1" t="s">
         <v>21</v>
       </c>
@@ -8437,49 +9460,49 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="49" t="s">
         <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="36">
-        <v>0</v>
-      </c>
-      <c r="D23" s="36">
-        <v>0</v>
-      </c>
-      <c r="E23" s="36">
-        <v>0</v>
-      </c>
-      <c r="F23" s="36">
-        <v>0</v>
-      </c>
-      <c r="G23" s="36">
-        <v>0</v>
-      </c>
-      <c r="H23" s="36">
-        <v>0</v>
-      </c>
-      <c r="I23" s="36">
-        <v>0</v>
-      </c>
-      <c r="J23" s="36">
-        <v>0</v>
-      </c>
-      <c r="K23" s="36">
-        <v>0</v>
-      </c>
-      <c r="L23" s="36">
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
         <v>50</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23" s="1">
         <v>50</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N23" s="1">
         <v>200</v>
       </c>
-      <c r="O23" s="36">
+      <c r="O23" s="1">
         <v>200</v>
       </c>
       <c r="P23" s="1"/>
@@ -8496,52 +9519,52 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="36">
-        <v>0</v>
-      </c>
-      <c r="D24" s="36">
-        <v>0</v>
-      </c>
-      <c r="E24" s="36">
-        <v>0</v>
-      </c>
-      <c r="F24" s="36">
-        <v>0</v>
-      </c>
-      <c r="G24" s="36">
-        <v>0</v>
-      </c>
-      <c r="H24" s="36">
-        <v>0</v>
-      </c>
-      <c r="I24" s="36">
-        <v>0</v>
-      </c>
-      <c r="J24" s="36">
-        <v>0</v>
-      </c>
-      <c r="K24" s="36">
-        <v>0</v>
-      </c>
-      <c r="L24" s="36">
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
         <v>50</v>
       </c>
-      <c r="M24" s="36">
+      <c r="M24" s="1">
         <v>50</v>
       </c>
-      <c r="N24" s="36">
+      <c r="N24" s="1">
         <v>200</v>
       </c>
-      <c r="O24" s="36">
+      <c r="O24" s="1">
         <v>200</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="24" t="s">
+      <c r="R24" s="30" t="s">
         <v>72</v>
       </c>
       <c r="S24" s="1" t="s">
@@ -8559,52 +9582,52 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="36">
-        <v>0</v>
-      </c>
-      <c r="D25" s="36">
-        <v>0</v>
-      </c>
-      <c r="E25" s="36">
-        <v>0</v>
-      </c>
-      <c r="F25" s="36">
-        <v>0</v>
-      </c>
-      <c r="G25" s="36">
-        <v>0</v>
-      </c>
-      <c r="H25" s="36">
-        <v>0</v>
-      </c>
-      <c r="I25" s="36">
-        <v>0</v>
-      </c>
-      <c r="J25" s="36">
-        <v>0</v>
-      </c>
-      <c r="K25" s="36">
-        <v>0</v>
-      </c>
-      <c r="L25" s="36">
-        <v>0</v>
-      </c>
-      <c r="M25" s="36">
-        <v>0</v>
-      </c>
-      <c r="N25" s="36">
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
         <v>20</v>
       </c>
-      <c r="O25" s="36">
+      <c r="O25" s="1">
         <v>20</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="25"/>
+      <c r="R25" s="31"/>
       <c r="S25" s="1" t="s">
         <v>74</v>
       </c>
@@ -8620,7 +9643,7 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
@@ -8665,7 +9688,7 @@
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="25"/>
+      <c r="R26" s="31"/>
       <c r="S26" s="1" t="s">
         <v>75</v>
       </c>
@@ -8681,7 +9704,7 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
@@ -8738,59 +9761,59 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="10">
         <f>C22+$T$24*C23+$T$25*C24+$T$26*C25-C26-C27</f>
         <v>235000</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="10">
         <f t="shared" ref="D28:O28" si="2">D22+$T$24*D23+$T$25*D24+$T$26*D25-D26-D27</f>
         <v>235000</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="10">
         <f t="shared" si="2"/>
         <v>235000</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="10">
         <f t="shared" si="2"/>
         <v>235000</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="10">
         <f t="shared" si="2"/>
         <v>235000</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="10">
         <f t="shared" si="2"/>
         <v>235000</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="10">
         <f t="shared" si="2"/>
         <v>235000</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="10">
         <f t="shared" si="2"/>
         <v>235000</v>
       </c>
-      <c r="K28" s="32">
+      <c r="K28" s="10">
         <f t="shared" si="2"/>
         <v>235000</v>
       </c>
-      <c r="L28" s="32">
+      <c r="L28" s="10">
         <f t="shared" si="2"/>
         <v>255500</v>
       </c>
-      <c r="M28" s="32">
+      <c r="M28" s="10">
         <f t="shared" si="2"/>
         <v>255500</v>
       </c>
-      <c r="N28" s="32">
+      <c r="N28" s="10">
         <f t="shared" si="2"/>
         <v>325000</v>
       </c>
-      <c r="O28" s="32">
+      <c r="O28" s="10">
         <f t="shared" si="2"/>
         <v>325000</v>
       </c>
@@ -8838,58 +9861,58 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="21">
         <f>Tableau16[[#Totals],[2023]]-Tableau1[[#Totals],[2023]]</f>
         <v>98031.015000000014</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="21">
         <f>Tableau16[[#Totals],[2024]]-Tableau1[[#Totals],[2024]]</f>
         <v>92231.015000000014</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="21">
         <f>Tableau16[[#Totals],[Colonne3]]-Tableau1[[#Totals],[Colonne3]]</f>
         <v>92231.015000000014</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="21">
         <f>Tableau16[[#Totals],[Colonne4]]-Tableau1[[#Totals],[Colonne4]]</f>
         <v>92231.015000000014</v>
       </c>
-      <c r="G30" s="49">
+      <c r="G30" s="21">
         <f>Tableau16[[#Totals],[Colonne5]]-Tableau1[[#Totals],[Colonne5]]</f>
         <v>132231.01500000001</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="21">
         <f>Tableau16[[#Totals],[2025]]-Tableau1[[#Totals],[2025]]</f>
         <v>107231.015</v>
       </c>
-      <c r="I30" s="49">
+      <c r="I30" s="21">
         <f>Tableau16[[#Totals],[Colonne6]]-Tableau1[[#Totals],[Colonne6]]</f>
         <v>111731.015</v>
       </c>
-      <c r="J30" s="49">
+      <c r="J30" s="21">
         <f>Tableau16[[#Totals],[Colonne7]]-Tableau1[[#Totals],[Colonne7]]</f>
         <v>111731.015</v>
       </c>
-      <c r="K30" s="49">
+      <c r="K30" s="21">
         <f>Tableau16[[#Totals],[Colonne8]]-Tableau1[[#Totals],[Colonne8]]</f>
         <v>131731.01500000001</v>
       </c>
-      <c r="L30" s="49">
+      <c r="L30" s="21">
         <f>Tableau16[[#Totals],[2026]]-Tableau1[[#Totals],[2026]]</f>
         <v>127231.015</v>
       </c>
-      <c r="M30" s="49">
+      <c r="M30" s="21">
         <f>Tableau16[[#Totals],[Colonne9]]-Tableau1[[#Totals],[Colonne9]]</f>
         <v>132231.01500000001</v>
       </c>
-      <c r="N30" s="49">
+      <c r="N30" s="21">
         <f>Tableau16[[#Totals],[Colonne10]]-Tableau1[[#Totals],[Colonne10]]</f>
         <v>201731.01500000001</v>
       </c>
-      <c r="O30" s="49">
+      <c r="O30" s="21">
         <f>Tableau16[[#Totals],[Colonne11]]-Tableau1[[#Totals],[Colonne11]]</f>
         <v>221731.01500000001</v>
       </c>
@@ -9040,7 +10063,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="33"/>
+      <c r="R35" s="11"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -9113,27 +10136,27 @@
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="1"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -9167,7 +10190,7 @@
       <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:27" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="1"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -9184,7 +10207,7 @@
       <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="1"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -9202,7 +10225,7 @@
       <c r="R48" s="8"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="1"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -9220,7 +10243,7 @@
       <c r="R49" s="8"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="1"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -9237,7 +10260,7 @@
       <c r="O50" s="7"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="1"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -9254,7 +10277,7 @@
       <c r="O51" s="7"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="1"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -9275,7 +10298,20 @@
       <c r="R53" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A40:A45"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="W20:W22"/>
     <mergeCell ref="R24:R26"/>
@@ -9283,19 +10319,8 @@
     <mergeCell ref="W5:W9"/>
     <mergeCell ref="R5:R8"/>
     <mergeCell ref="R12:R16"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="Q3:Q9"/>
+    <mergeCell ref="Q10:Q13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
